--- a/pedidos_wc.xlsx
+++ b/pedidos_wc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>2969</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-05-20T16:57:38</t>
+          <t>2021-05-25T14:28:23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[{'id': 481, 'sku': '8435661600481', 'quantity': 3}, {'id': 482, 'sku': '8435661600498', 'quantity': 1}, {'id': 483, 'sku': '8435661600504', 'quantity': 2}]</t>
+          <t>[{'id': 528, 'sku': '8435661600535', 'quantity': 1}, {'id': 529, 'sku': '8435661600542', 'quantity': 1}, {'id': 530, 'sku': '8435661600559', 'quantity': 1}, {'id': 531, 'sku': '006703060201', 'quantity': 1}, {'id': 532, 'sku': '001405030201', 'quantity': 1}, {'id': 533, 'sku': '8435661600528', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -486,22 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2950</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-05-19T10:36:00</t>
+          <t>2021-05-25T13:35:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[{'id': 476, 'sku': '001400000201', 'quantity': 6}, {'id': 477, 'sku': '001904020504', 'quantity': 1}]</t>
+          <t>[{'id': 520, 'sku': '8435661600528', 'quantity': 1}, {'id': 521, 'sku': '8435661600535', 'quantity': 1}, {'id': 522, 'sku': '8435661600542', 'quantity': 1}, {'id': 523, 'sku': '8435661600559', 'quantity': 1}, {'id': 524, 'sku': '006703060201', 'quantity': 1}, {'id': 525, 'sku': '001405030201', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-05-18T18:22:35</t>
+          <t>2021-05-25T13:32:41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[{'id': 472, 'sku': '8435661600511', 'quantity': 1}, {'id': 473, 'sku': '9909003002', 'quantity': 1}, {'id': 474, 'sku': '009909000401', 'quantity': 2}]</t>
+          <t>[{'id': 513, 'sku': '8435661600528', 'quantity': 1}, {'id': 514, 'sku': '8435661600535', 'quantity': 1}, {'id': 515, 'sku': '8435661600542', 'quantity': 1}, {'id': 516, 'sku': '8435661600559', 'quantity': 1}, {'id': 517, 'sku': '006703060201', 'quantity': 1}, {'id': 518, 'sku': '001405030201', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2947</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-05-18T18:14:37</t>
+          <t>2021-05-25T12:30:17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[{'id': 468, 'sku': '8435661600511', 'quantity': 1}, {'id': 469, 'sku': '9909003002', 'quantity': 1}, {'id': 470, 'sku': '009909000401', 'quantity': 2}]</t>
+          <t>[{'id': 511, 'sku': '008702000201', 'quantity': 2}]</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2946</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-05-18T17:04:12</t>
+          <t>2021-05-25T11:13:18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[{'id': 466, 'sku': '8435661600511', 'quantity': 1}]</t>
+          <t>[{'id': 508, 'sku': 'test', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2945</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-05-18T10:52:54</t>
+          <t>2021-05-24T19:00:08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[{'id': 464, 'sku': '8435661600542', 'quantity': 1}]</t>
+          <t>[{'id': 506, 'sku': '005806053007', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2935</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-05-17T11:33:43</t>
+          <t>2021-05-24T09:58:07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[{'id': 460, 'sku': '8435661600481', 'quantity': 3}, {'id': 461, 'sku': '8435661600511', 'quantity': 2}, {'id': 462, 'sku': '8435661600504', 'quantity': 1}]</t>
+          <t>[{'id': 503, 'sku': '005806050201', 'quantity': 4}, {'id': 504, 'sku': '005706050201', 'quantity': 2}]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>2961</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-05-17T09:16:39</t>
+          <t>2021-05-23T16:20:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[{'id': 454, 'sku': '002501110201', 'quantity': 1}, {'id': 455, 'sku': '002502110201', 'quantity': 2}, {'id': 456, 'sku': '002403110201', 'quantity': 1}, {'id': 457, 'sku': '005806050204', 'quantity': 1}, {'id': 458, 'sku': '080396720103', 'quantity': 1}]</t>
+          <t>[{'id': 499, 'sku': '8435661600528', 'quantity': 1}, {'id': 500, 'sku': '8435661600542', 'quantity': 1}, {'id': 501, 'sku': '005806053007', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -661,22 +661,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>2960</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>completed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-05-16T12:24:34</t>
+          <t>2021-05-23T16:17:20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[{'id': 450, 'sku': '8435661600528', 'quantity': 1}, {'id': 451, 'sku': '8435661600542', 'quantity': 1}, {'id': 452, 'sku': '8435661600535', 'quantity': 1}]</t>
+          <t>[{'id': 496, 'sku': '8435661600528', 'quantity': 1}, {'id': 497, 'sku': '8435661600542', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,647 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-05-22T13:51:57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[{'id': 493, 'sku': '005806050201', 'quantity': 4}, {'id': 494, 'sku': '005706050201', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2958</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>on-hold</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-05-22T13:33:48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[{'id': 491, 'sku': '006703060201', 'quantity': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-05-22T13:32:25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[{'id': 489, 'sku': '006703060201', 'quantity': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2021-05-21T20:36:15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[{'id': 487, 'sku': '8435661600528', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-05-20T16:57:38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[{'id': 481, 'sku': '8435661600481', 'quantity': 3}, {'id': 482, 'sku': '8435661600498', 'quantity': 1}, {'id': 483, 'sku': '8435661600504', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021-05-19T10:36:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[{'id': 476, 'sku': '001400000201', 'quantity': 6}, {'id': 477, 'sku': '001904020504', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2948</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2021-05-18T18:22:35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[{'id': 472, 'sku': '8435661600511', 'quantity': 1}, {'id': 473, 'sku': '9909003002', 'quantity': 1}, {'id': 474, 'sku': '009909000401', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2021-05-18T18:14:37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[{'id': 468, 'sku': '8435661600511', 'quantity': 1}, {'id': 469, 'sku': '9909003002', 'quantity': 1}, {'id': 470, 'sku': '009909000401', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2946</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021-05-18T17:04:12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[{'id': 466, 'sku': '8435661600511', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021-05-18T10:52:54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[{'id': 464, 'sku': '8435661600542', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2935</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021-05-17T11:33:43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[{'id': 460, 'sku': '8435661600481', 'quantity': 3}, {'id': 461, 'sku': '8435661600511', 'quantity': 2}, {'id': 462, 'sku': '8435661600504', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2934</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2021-05-17T09:16:39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[{'id': 454, 'sku': '002501110201', 'quantity': 1}, {'id': 455, 'sku': '002502110201', 'quantity': 2}, {'id': 456, 'sku': '002403110201', 'quantity': 1}, {'id': 457, 'sku': '005806050204', 'quantity': 1}, {'id': 458, 'sku': '080396720103', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2021-05-16T12:24:34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[{'id': 450, 'sku': '8435661600528', 'quantity': 1}, {'id': 451, 'sku': '8435661600542', 'quantity': 1}, {'id': 452, 'sku': '8435661600535', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>2932</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>2021-05-15T20:00:27</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>[{'id': 446, 'sku': '8435661600528', 'quantity': 3}, {'id': 447, 'sku': '8435661600542', 'quantity': 1}, {'id': 448, 'sku': '8435661600559', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2931</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2021-05-14T18:33:11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[{'id': 441, 'sku': '8435661600511', 'quantity': 1}, {'id': 442, 'sku': '8435661600504', 'quantity': 1}, {'id': 443, 'sku': '8435661600498', 'quantity': 1}, {'id': 444, 'sku': '8435661600481', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2021-05-14T18:11:48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[{'id': 439, 'sku': '8435661600481', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2021-05-14T13:31:51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[{'id': 432, 'sku': '8435661600481', 'quantity': 1}, {'id': 433, 'sku': '8435661600504', 'quantity': 1}, {'id': 434, 'sku': '', 'quantity': 1}, {'id': 435, 'sku': '007807000201', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2926</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-05-14T12:32:56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[{'id': 426, 'sku': '8435661600481', 'quantity': 1}, {'id': 427, 'sku': '8435661600511', 'quantity': 1}, {'id': 428, 'sku': '8435661600535', 'quantity': 1}, {'id': 429, 'sku': '8435661600542', 'quantity': 1}, {'id': 430, 'sku': '8435661600559', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-05-14T10:55:49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[{'id': 422, 'sku': '8435661600511', 'quantity': 1}, {'id': 423, 'sku': '8435661600528', 'quantity': 1}, {'id': 424, 'sku': '005806050204', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2021-05-14T08:33:20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[{'id': 416, 'sku': '8435661600528', 'quantity': 1}, {'id': 417, 'sku': '8435661600535', 'quantity': 1}, {'id': 418, 'sku': '8435661600542', 'quantity': 1}, {'id': 419, 'sku': '8435661600481', 'quantity': 1}, {'id': 420, 'sku': '8435661600504', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2906</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2021-05-13T09:25:27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[{'id': 407, 'sku': '005806053004', 'quantity': 1}, {'id': 408, 'sku': '005806053005', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2021-05-12T12:31:14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[{'id': 400, 'sku': '006703060202', 'quantity': 1}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-04-22T12:59:01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[{'id': 365, 'sku': '008702000201', 'quantity': 3}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2876</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2021-04-20T22:43:01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[{'id': 363, 'sku': '008702000201', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2865</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2021-03-26T10:47:12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[{'id': 343, 'sku': '008702000201', 'quantity': 2}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>refunded</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2021-03-26T10:03:29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[{'id': 334, 'sku': 'test', 'quantity': 1}]</t>
         </is>
       </c>
     </row>
